--- a/assets/Steven Grossman - User Testing/User Stories - Steven Grossman.xlsx
+++ b/assets/Steven Grossman - User Testing/User Stories - Steven Grossman.xlsx
@@ -778,6 +778,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -798,12 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1121,11 +1121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="30" t="s">
         <v>55</v>
       </c>
@@ -1133,18 +1133,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3">
         <f ca="1">NOW()</f>
-        <v>42704.928838888889</v>
+        <v>42716.835668055559</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1246,16 +1246,16 @@
       <c r="C6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="33" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="10"/>
@@ -1275,19 +1275,19 @@
       <c r="B7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="33" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="10"/>
@@ -1310,16 +1310,16 @@
       <c r="C8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="33" t="s">
         <v>85</v>
       </c>
       <c r="H8" s="10"/>
@@ -1457,18 +1457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="20"/>
